--- a/anwesende/room/tests/data/rooms2.xlsx
+++ b/anwesende/room/tests/data/rooms2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws\gl\anwesende\anwesende\room\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E699B-E2DE-42AA-A80D-BD4E0C9046D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1B2D1-A380-4E6D-8E84-BCCA9847B604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10728" windowHeight="19272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10730" windowHeight="19270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>organization</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>r2s4</t>
+  </si>
+  <si>
+    <t>row_dist</t>
+  </si>
+  <si>
+    <t>seat_dist</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -382,22 +394,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -408,13 +420,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,9 +443,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
